--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E22CF-8C6E-460C-AF8D-9C4D310493E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD317F-F219-40B3-81FC-1F487B3B5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Reason</t>
   </si>
   <si>
-    <t>Pruthviraj Paymal</t>
-  </si>
-  <si>
     <t>Somnath Mohite</t>
   </si>
   <si>
@@ -58,10 +55,16 @@
     <t>Chirag Mahajan</t>
   </si>
   <si>
-    <t>Tushar</t>
-  </si>
-  <si>
     <t>Note: Time 9 to 10PM</t>
+  </si>
+  <si>
+    <t>Tushar bhosale</t>
+  </si>
+  <si>
+    <t>Suraj Sutar</t>
+  </si>
+  <si>
+    <t>Pruthviraj Paymal(TL)</t>
   </si>
 </sst>
 </file>
@@ -454,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -501,12 +504,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -529,12 +534,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -557,12 +564,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -585,12 +594,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -618,7 +629,9 @@
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -641,10 +654,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -662,66 +679,14 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E9" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E7" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
@@ -734,7 +699,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -846,7 +811,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 E2" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E9" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD317F-F219-40B3-81FC-1F487B3B5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4EAF4-F6D7-4232-BD2A-BFCCE6B6B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -158,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +464,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -482,7 +486,9 @@
       <c r="D1" s="4">
         <v>45290</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4">
+        <v>45291</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -512,7 +518,9 @@
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -542,7 +550,9 @@
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -572,7 +582,9 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -602,7 +614,9 @@
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -632,7 +646,9 @@
       <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -662,7 +678,9 @@
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4EAF4-F6D7-4232-BD2A-BFCCE6B6B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF9922-BE5C-481D-83A9-9331116F08DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Absent</t>
-  </si>
-  <si>
-    <t>Reason</t>
   </si>
   <si>
     <t>Somnath Mohite</t>
@@ -158,10 +155,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -510,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -542,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>3</v>
@@ -574,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>3</v>
@@ -606,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>4</v>
@@ -638,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>3</v>
@@ -670,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -699,7 +692,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -714,13 +707,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -730,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>45289</v>
+        <v>45292</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -740,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -753,10 +749,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -766,9 +762,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
@@ -777,9 +775,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -788,9 +788,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
@@ -799,15 +801,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -816,20 +820,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E9" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF9922-BE5C-481D-83A9-9331116F08DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3AB515-5A5B-4721-8B52-85519392CF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Sr. No</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Pruthviraj Paymal(TL)</t>
+  </si>
+  <si>
+    <t>Gahininath Adalinge</t>
   </si>
 </sst>
 </file>
@@ -503,16 +503,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -535,16 +535,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -567,16 +567,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -599,16 +599,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -631,16 +631,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -663,16 +663,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -728,101 +728,157 @@
       <c r="C1" s="4">
         <v>45292</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="4">
+        <v>45293</v>
+      </c>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:J8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3AB515-5A5B-4721-8B52-85519392CF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898C833-576E-455D-81D8-4B877489CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -710,7 +710,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,9 @@
       <c r="D1" s="4">
         <v>45293</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4">
+        <v>45294</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -751,7 +753,9 @@
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -771,7 +775,9 @@
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -791,7 +797,9 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -811,7 +819,9 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -831,7 +841,9 @@
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -851,7 +863,9 @@
       <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -869,7 +883,9 @@
       <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898C833-576E-455D-81D8-4B877489CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3581CAA-0432-4643-8222-ADE9FAA0DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Jan-2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,8 +26,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Medical Emergency</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -62,13 +81,16 @@
   </si>
   <si>
     <t>Gahininath Adalinge</t>
+  </si>
+  <si>
+    <t>Reason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +104,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,6 +183,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Pruthviraj Paymal" id="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" userId="1f765ae8e23faba6" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,6 +486,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F5" dT="2024-01-04T16:30:19.91" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
+    <text>Medical Emergency</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
   <dimension ref="A1:T11"/>
@@ -706,11 +748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,7 +776,9 @@
       <c r="E1" s="4">
         <v>45294</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4">
+        <v>45295</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -756,7 +800,9 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -778,7 +824,9 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -800,7 +848,9 @@
       <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -822,7 +872,9 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -844,7 +896,9 @@
       <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -866,7 +920,9 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -886,7 +942,9 @@
       <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -899,5 +957,18 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3581CAA-0432-4643-8222-ADE9FAA0DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A105C60F-1C8D-42AC-835C-8FC57C2BBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}</author>
+    <author>tc={37976732-7168-4646-8092-627EDB32F958}</author>
   </authors>
   <commentList>
     <comment ref="F5" authorId="0" shapeId="0" xr:uid="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
@@ -40,12 +41,21 @@
     Medical Emergency</t>
       </text>
     </comment>
+    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{37976732-7168-4646-8092-627EDB32F958}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Medical emergency
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -491,6 +501,10 @@
   <threadedComment ref="F5" dT="2024-01-04T16:30:19.91" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
     <text>Medical Emergency</text>
   </threadedComment>
+  <threadedComment ref="G5" dT="2024-01-05T17:22:55.77" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{37976732-7168-4646-8092-627EDB32F958}">
+    <text xml:space="preserve">Medical emergency
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -752,7 +766,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -779,7 +793,9 @@
       <c r="F1" s="4">
         <v>45295</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4">
+        <v>45296</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -803,7 +819,9 @@
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -827,7 +845,9 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -851,7 +871,9 @@
       <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -875,7 +897,9 @@
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -899,7 +923,9 @@
       <c r="F6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -923,7 +949,9 @@
       <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -945,7 +973,9 @@
       <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A105C60F-1C8D-42AC-835C-8FC57C2BBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17764C-6698-4BEC-A59C-B7A0F55E718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -29,11 +29,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={8D88C115-F3D9-48BB-8785-CB7D0D2CF01A}</author>
     <author>tc={8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}</author>
     <author>tc={37976732-7168-4646-8092-627EDB32F958}</author>
+    <author>tc={AAF149A4-F3B5-465F-B672-9517F63F11BE}</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{8D88C115-F3D9-48BB-8785-CB7D0D2CF01A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not feeling well reason cold and fever
+</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -41,7 +52,7 @@
     Medical Emergency</t>
       </text>
     </comment>
-    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{37976732-7168-4646-8092-627EDB32F958}">
+    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{37976732-7168-4646-8092-627EDB32F958}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,12 +61,20 @@
 </t>
       </text>
     </comment>
+    <comment ref="I5" authorId="3" shapeId="0" xr:uid="{AAF149A4-F3B5-465F-B672-9517F63F11BE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Medical emergency</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -498,12 +517,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I3" dT="2024-01-07T16:22:45.44" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{8D88C115-F3D9-48BB-8785-CB7D0D2CF01A}">
+    <text xml:space="preserve">Not feeling well reason cold and fever
+</text>
+  </threadedComment>
   <threadedComment ref="F5" dT="2024-01-04T16:30:19.91" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
     <text>Medical Emergency</text>
   </threadedComment>
   <threadedComment ref="G5" dT="2024-01-05T17:22:55.77" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{37976732-7168-4646-8092-627EDB32F958}">
     <text xml:space="preserve">Medical emergency
 </text>
+  </threadedComment>
+  <threadedComment ref="I5" dT="2024-01-07T16:23:22.73" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{AAF149A4-F3B5-465F-B672-9517F63F11BE}">
+    <text>Medical emergency</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -763,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -774,7 +800,7 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,10 +823,15 @@
         <v>45296</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4">
+        <v>45298</v>
+      </c>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -823,10 +854,15 @@
         <v>2</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -849,10 +885,15 @@
         <v>2</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -875,10 +916,15 @@
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -901,10 +947,15 @@
         <v>12</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -927,10 +978,15 @@
         <v>3</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -953,10 +1009,15 @@
         <v>2</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -977,12 +1038,17 @@
         <v>3</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:J8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:M8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17764C-6698-4BEC-A59C-B7A0F55E718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB5B22-CCCD-482C-8F48-B7EA91F8CF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,12 +133,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -792,7 +786,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -826,7 +820,9 @@
       <c r="I1" s="4">
         <v>45298</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4">
+        <v>45299</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -857,7 +853,9 @@
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -888,7 +886,9 @@
       <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -919,7 +919,9 @@
       <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -950,7 +952,9 @@
       <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -981,7 +985,9 @@
       <c r="I6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1012,7 +1018,9 @@
       <c r="I7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1041,7 +1049,9 @@
       <c r="I8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB5B22-CCCD-482C-8F48-B7EA91F8CF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5FB33-97DB-4799-99A0-5381DD853395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -823,7 +823,9 @@
       <c r="J1" s="4">
         <v>45299</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4">
+        <v>45300</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
@@ -856,7 +858,9 @@
       <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
@@ -889,7 +893,9 @@
       <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
@@ -922,7 +928,9 @@
       <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
@@ -955,7 +963,9 @@
       <c r="J5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
@@ -988,7 +998,9 @@
       <c r="J6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
@@ -1021,7 +1033,9 @@
       <c r="J7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
@@ -1052,7 +1066,9 @@
       <c r="J8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5FB33-97DB-4799-99A0-5381DD853395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47F26B-19D2-4478-B29B-AB238DF04B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,9 @@
       <c r="K1" s="4">
         <v>45300</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4">
+        <v>45301</v>
+      </c>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -861,7 +863,9 @@
       <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -896,7 +900,9 @@
       <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -931,7 +937,9 @@
       <c r="K4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -966,7 +974,9 @@
       <c r="K5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1001,7 +1011,9 @@
       <c r="K6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1036,7 +1048,9 @@
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1069,7 +1083,9 @@
       <c r="K8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="7"/>
     </row>
   </sheetData>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47F26B-19D2-4478-B29B-AB238DF04B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD706855-592E-4751-A14D-5C837E282372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -829,9 +829,18 @@
       <c r="L1" s="4">
         <v>45301</v>
       </c>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M1" s="4">
+        <v>45302</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -866,9 +875,18 @@
       <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -903,9 +921,18 @@
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -940,9 +967,18 @@
       <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -977,9 +1013,18 @@
       <c r="L5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1014,9 +1059,18 @@
       <c r="L6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1051,9 +1105,18 @@
       <c r="L7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="M7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1086,11 +1149,20 @@
       <c r="L8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:M8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:T8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD706855-592E-4751-A14D-5C837E282372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F71E7E3-920C-4259-B472-AB9D69F54A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -832,7 +832,9 @@
       <c r="M1" s="4">
         <v>45302</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="4">
+        <v>45303</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -878,7 +880,9 @@
       <c r="M2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -924,7 +928,9 @@
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -970,7 +976,9 @@
       <c r="M4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1016,7 +1024,9 @@
       <c r="M5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1062,7 +1072,9 @@
       <c r="M6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1108,7 +1120,9 @@
       <c r="M7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1152,7 +1166,9 @@
       <c r="M8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F71E7E3-920C-4259-B472-AB9D69F54A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FED9C-799B-4AFC-ADD3-8BD1E0FAA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -30,6 +30,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8D88C115-F3D9-48BB-8785-CB7D0D2CF01A}</author>
+    <author>tc={041586F8-46F1-4E07-A287-5C360E38570C}</author>
     <author>tc={8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}</author>
     <author>tc={37976732-7168-4646-8092-627EDB32F958}</author>
     <author>tc={AAF149A4-F3B5-465F-B672-9517F63F11BE}</author>
@@ -44,7 +45,16 @@
 </t>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{041586F8-46F1-4E07-A287-5C360E38570C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Personal reason
+</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="2" shapeId="0" xr:uid="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +62,7 @@
     Medical Emergency</t>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{37976732-7168-4646-8092-627EDB32F958}">
+    <comment ref="G5" authorId="3" shapeId="0" xr:uid="{37976732-7168-4646-8092-627EDB32F958}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +71,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="I5" authorId="3" shapeId="0" xr:uid="{AAF149A4-F3B5-465F-B672-9517F63F11BE}">
+    <comment ref="I5" authorId="4" shapeId="0" xr:uid="{AAF149A4-F3B5-465F-B672-9517F63F11BE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -119,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -515,6 +531,10 @@
     <text xml:space="preserve">Not feeling well reason cold and fever
 </text>
   </threadedComment>
+  <threadedComment ref="P3" dT="2024-01-14T16:15:11.79" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{041586F8-46F1-4E07-A287-5C360E38570C}">
+    <text xml:space="preserve">Personal reason
+</text>
+  </threadedComment>
   <threadedComment ref="F5" dT="2024-01-04T16:30:19.91" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{8783CE86-BDB9-42C8-AC71-2AAF5C3DC86E}">
     <text>Medical Emergency</text>
   </threadedComment>
@@ -785,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -836,7 +856,9 @@
         <v>45303</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="P1" s="4">
+        <v>45305</v>
+      </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -884,7 +906,9 @@
         <v>2</v>
       </c>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -932,7 +956,9 @@
         <v>2</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -980,7 +1006,9 @@
         <v>3</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -1028,7 +1056,9 @@
         <v>3</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -1076,7 +1106,9 @@
         <v>3</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -1124,7 +1156,9 @@
         <v>2</v>
       </c>
       <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -1170,7 +1204,9 @@
         <v>3</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FED9C-799B-4AFC-ADD3-8BD1E0FAA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE32AE7-9650-4D6C-8D98-6C03B915018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,12 +143,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -803,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -814,7 +808,7 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -860,11 +854,21 @@
         <v>45305</v>
       </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="R1" s="4">
+        <v>45307</v>
+      </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -910,11 +914,21 @@
         <v>2</v>
       </c>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -960,11 +974,21 @@
         <v>12</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1010,11 +1034,21 @@
         <v>3</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1060,11 +1094,21 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1110,11 +1154,21 @@
         <v>3</v>
       </c>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1160,11 +1214,21 @@
         <v>2</v>
       </c>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1208,13 +1272,23 @@
         <v>3</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:T8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AB8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE32AE7-9650-4D6C-8D98-6C03B915018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE5420-44B5-4541-BCF0-16CBEE228682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -857,7 +857,9 @@
       <c r="R1" s="4">
         <v>45307</v>
       </c>
-      <c r="S1" s="5"/>
+      <c r="S1" s="4">
+        <v>45308</v>
+      </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -917,7 +919,9 @@
       <c r="R2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -977,7 +981,9 @@
       <c r="R3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1037,7 +1043,9 @@
       <c r="R4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -1097,7 +1105,9 @@
       <c r="R5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1157,7 +1167,9 @@
       <c r="R6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -1217,7 +1229,9 @@
       <c r="R7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1275,7 +1289,9 @@
       <c r="R8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE5420-44B5-4541-BCF0-16CBEE228682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16746A-2903-4FC6-ADC3-0A64C76229CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -861,7 +861,9 @@
         <v>45308</v>
       </c>
       <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="U1" s="4">
+        <v>45310</v>
+      </c>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -923,7 +925,9 @@
         <v>2</v>
       </c>
       <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -985,7 +989,9 @@
         <v>2</v>
       </c>
       <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -1047,7 +1053,9 @@
         <v>3</v>
       </c>
       <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -1109,7 +1117,9 @@
         <v>3</v>
       </c>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1171,7 +1181,9 @@
         <v>3</v>
       </c>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1233,7 +1245,9 @@
         <v>2</v>
       </c>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1293,7 +1307,9 @@
         <v>3</v>
       </c>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16746A-2903-4FC6-ADC3-0A64C76229CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC08B16-4EDA-4EB5-BC52-E73B8721EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -800,7 +800,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,9 @@
         <v>45310</v>
       </c>
       <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="W1" s="4">
+        <v>45312</v>
+      </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -929,7 +931,9 @@
         <v>2</v>
       </c>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="W2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -993,7 +997,9 @@
         <v>2</v>
       </c>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -1057,7 +1063,9 @@
         <v>3</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -1121,7 +1129,9 @@
         <v>3</v>
       </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="W5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
@@ -1185,7 +1195,9 @@
         <v>3</v>
       </c>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -1249,7 +1261,9 @@
         <v>2</v>
       </c>
       <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -1311,7 +1325,9 @@
         <v>3</v>
       </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC08B16-4EDA-4EB5-BC52-E73B8721EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731ACB4A-1A74-490B-9B7B-DDC4605FD184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -797,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -808,7 +808,7 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -869,12 +869,20 @@
         <v>45312</v>
       </c>
       <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="Y1" s="4">
+        <v>45314</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>45315</v>
+      </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -935,12 +943,20 @@
         <v>2</v>
       </c>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="Y2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+    </row>
+    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1001,12 +1017,20 @@
         <v>2</v>
       </c>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="Y3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-    </row>
-    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1067,12 +1091,20 @@
         <v>3</v>
       </c>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
-    </row>
-    <row r="5" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1133,12 +1165,20 @@
         <v>3</v>
       </c>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="Y5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1199,12 +1239,20 @@
         <v>3</v>
       </c>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="Y6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+    </row>
+    <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1265,12 +1313,20 @@
         <v>2</v>
       </c>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="Y7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1329,14 +1385,22 @@
         <v>3</v>
       </c>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="Y8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AB8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AF8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731ACB4A-1A74-490B-9B7B-DDC4605FD184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9545A1B7-A434-41C0-B0B9-A9FF5F623C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -800,7 +800,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,9 @@
       <c r="Z1" s="4">
         <v>45315</v>
       </c>
-      <c r="AA1" s="5"/>
+      <c r="AA1" s="4">
+        <v>45316</v>
+      </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
@@ -949,7 +951,9 @@
       <c r="Z2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="7"/>
+      <c r="AA2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
@@ -1023,7 +1027,9 @@
       <c r="Z3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="7"/>
+      <c r="AA3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
@@ -1097,7 +1103,9 @@
       <c r="Z4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="7"/>
+      <c r="AA4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
@@ -1171,7 +1179,9 @@
       <c r="Z5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="7"/>
+      <c r="AA5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
@@ -1245,7 +1255,9 @@
       <c r="Z6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -1319,7 +1331,9 @@
       <c r="Z7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -1391,7 +1405,9 @@
       <c r="Z8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9545A1B7-A434-41C0-B0B9-A9FF5F623C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB623876-1819-4527-95CA-9CF7403EF55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -797,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -808,7 +808,7 @@
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -882,9 +882,12 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF1" s="4">
+        <v>45321</v>
+      </c>
+      <c r="AG1" s="5"/>
+    </row>
+    <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -958,9 +961,12 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-    </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1034,9 +1040,12 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1110,9 +1119,12 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-    </row>
-    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1186,9 +1198,12 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-    </row>
-    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1262,9 +1277,12 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-    </row>
-    <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1338,9 +1356,12 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-    </row>
-    <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="AF7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1412,11 +1433,14 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AF8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AG8" xr:uid="{3DB7E5D7-F13D-8049-AED0-F89F0EA89AAF}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB623876-1819-4527-95CA-9CF7403EF55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED71FE0-E385-4C7D-82C8-E5C107871F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Jan-2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Feb-2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D1CC70-9438-1A44-9A3A-851EC2F4124C}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1451,12 +1451,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
+        <v>45324</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:I8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+      <formula1>"Present, Absent,Reason"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED71FE0-E385-4C7D-82C8-E5C107871F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E3BFA0-24E9-4B95-A219-80E2C3BB5ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1462,6 +1462,7 @@
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1476,7 +1477,9 @@
         <v>45324</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4">
+        <v>45326</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1493,7 +1496,9 @@
         <v>2</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1510,7 +1515,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1527,7 +1534,9 @@
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1544,7 +1553,9 @@
         <v>3</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1561,7 +1572,9 @@
         <v>3</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1578,7 +1591,9 @@
         <v>2</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1595,7 +1610,9 @@
         <v>3</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E3BFA0-24E9-4B95-A219-80E2C3BB5ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B32C61-A3CF-4F3D-BB74-9B5C6016A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1480,7 +1480,9 @@
       <c r="F1" s="4">
         <v>45326</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4">
+        <v>45327</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
@@ -1499,7 +1501,9 @@
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
@@ -1518,7 +1522,9 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -1537,7 +1543,9 @@
       <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -1556,7 +1564,9 @@
       <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -1575,7 +1585,9 @@
       <c r="F6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -1594,7 +1606,9 @@
       <c r="F7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -1613,7 +1627,9 @@
       <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B32C61-A3CF-4F3D-BB74-9B5C6016A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74609E9-C5EF-4126-8537-74BEF7203AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1483,7 +1483,9 @@
       <c r="G1" s="4">
         <v>45327</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4">
+        <v>45328</v>
+      </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1504,7 +1506,9 @@
       <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1525,7 +1529,9 @@
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1546,7 +1552,9 @@
       <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1567,7 +1575,9 @@
       <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1588,7 +1598,9 @@
       <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1609,7 +1621,9 @@
       <c r="G7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1630,7 +1644,9 @@
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
   </sheetData>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74609E9-C5EF-4126-8537-74BEF7203AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B5E01-D2FB-49B7-AF0E-E4A83CDE36B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -83,8 +83,27 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={807B4A58-08ED-4062-A3D9-22D9467AD9D8}</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{807B4A58-08ED-4062-A3D9-22D9467AD9D8}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Medical issue
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -129,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -542,6 +567,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I3" dT="2024-02-07T14:42:37.76" personId="{D346A3DA-9822-4582-ACAA-5AEDCCB210ED}" id="{807B4A58-08ED-4062-A3D9-22D9467AD9D8}">
+    <text xml:space="preserve">Medical issue
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
   <dimension ref="A1:T11"/>
@@ -1450,11 +1484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1462,10 +1496,10 @@
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="6" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1486,9 +1520,14 @@
       <c r="H1" s="4">
         <v>45328</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I1" s="4">
+        <v>45329</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1509,9 +1548,14 @@
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1532,9 +1576,14 @@
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1555,9 +1604,14 @@
       <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1578,9 +1632,14 @@
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1601,9 +1660,14 @@
       <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1624,9 +1688,14 @@
       <c r="H7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1647,14 +1716,20 @@
       <c r="H8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:I8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:L8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08B5E01-D2FB-49B7-AF0E-E4A83CDE36B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85230BE0-452C-4958-9985-72C3460156E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,12 +162,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1488,7 +1482,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1490,7 @@
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="6" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -1523,7 +1517,9 @@
       <c r="I1" s="4">
         <v>45329</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4">
+        <v>45330</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
@@ -1551,7 +1547,9 @@
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
@@ -1579,7 +1577,9 @@
       <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
@@ -1607,7 +1607,9 @@
       <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
@@ -1635,7 +1637,9 @@
       <c r="I5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
@@ -1663,7 +1667,9 @@
       <c r="I6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
@@ -1691,7 +1697,9 @@
       <c r="I7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
@@ -1719,7 +1727,9 @@
       <c r="I8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85230BE0-452C-4958-9985-72C3460156E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5187758F-1F4F-45F6-9FD1-D703E41E7186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1491,9 +1491,10 @@
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1522,8 +1523,12 @@
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M1" s="4">
+        <v>45333</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1552,8 +1557,12 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1582,8 +1591,12 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1612,8 +1625,12 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1642,8 +1659,12 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1672,8 +1693,12 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1702,8 +1727,12 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1732,10 +1761,14 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:L8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:N8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5187758F-1F4F-45F6-9FD1-D703E41E7186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005690FE-4F97-4916-B817-A769D461AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1491,10 +1491,10 @@
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1526,9 +1526,16 @@
       <c r="M1" s="4">
         <v>45333</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N1" s="4">
+        <v>45334</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1560,9 +1567,16 @@
       <c r="M2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1594,9 +1608,16 @@
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1628,9 +1649,16 @@
       <c r="M4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1662,9 +1690,16 @@
       <c r="M5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1696,9 +1731,16 @@
       <c r="M6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1730,9 +1772,16 @@
       <c r="M7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="N7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1764,11 +1813,18 @@
       <c r="M8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:N8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:S8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005690FE-4F97-4916-B817-A769D461AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194DA663-2768-4562-A9FA-BBB40EA6D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1492,6 +1492,7 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
@@ -1531,7 +1532,9 @@
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="4">
+        <v>45337</v>
+      </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
@@ -1572,7 +1575,9 @@
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
@@ -1613,7 +1618,9 @@
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
@@ -1654,7 +1661,9 @@
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
@@ -1695,7 +1704,9 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
@@ -1736,7 +1747,9 @@
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
@@ -1777,7 +1790,9 @@
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
@@ -1818,7 +1833,9 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194DA663-2768-4562-A9FA-BBB40EA6D0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDE69A-1B1F-40A5-B6F3-E97DF62BF751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1492,10 +1492,10 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1535,10 +1535,16 @@
       <c r="Q1" s="4">
         <v>45337</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R1" s="4">
+        <v>45338</v>
+      </c>
+      <c r="S1" s="4">
+        <v>45339</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1578,10 +1584,16 @@
       <c r="Q2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1621,10 +1633,16 @@
       <c r="Q3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1664,10 +1682,16 @@
       <c r="Q4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1707,10 +1731,16 @@
       <c r="Q5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1750,10 +1780,16 @@
       <c r="Q6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1793,10 +1829,16 @@
       <c r="Q7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="R7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1836,12 +1878,18 @@
       <c r="Q8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:S8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:U8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDE69A-1B1F-40A5-B6F3-E97DF62BF751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87488E15-12AD-49AF-893C-7867E833E101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1493,9 +1493,10 @@
     <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1543,8 +1544,14 @@
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V1" s="4">
+        <v>45342</v>
+      </c>
+      <c r="W1" s="4">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1592,8 +1599,14 @@
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1641,8 +1654,14 @@
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1690,8 +1709,14 @@
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1739,8 +1764,14 @@
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1788,8 +1819,14 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1837,8 +1874,14 @@
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="V7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1886,10 +1929,16 @@
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
+      <c r="V8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:U8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:W8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87488E15-12AD-49AF-893C-7867E833E101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E278C3-7EC1-4041-AFDB-02C9A38969AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1493,10 +1493,10 @@
     <col min="6" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1550,8 +1550,13 @@
       <c r="W1" s="4">
         <v>45343</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X1" s="4">
+        <v>45344</v>
+      </c>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1605,8 +1610,13 @@
       <c r="W2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1660,8 +1670,13 @@
       <c r="W3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1715,8 +1730,13 @@
       <c r="W4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1770,8 +1790,13 @@
       <c r="W5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1825,8 +1850,13 @@
       <c r="W6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1880,8 +1910,13 @@
       <c r="W7" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="X7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1935,10 +1970,15 @@
       <c r="W8" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="X8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:W8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:Z8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E278C3-7EC1-4041-AFDB-02C9A38969AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E3B431-5054-4811-9BA0-766C56BC6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1494,9 +1494,10 @@
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1554,9 +1555,15 @@
         <v>45344</v>
       </c>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z1" s="4">
+        <v>45346</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+    </row>
+    <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1614,9 +1621,15 @@
         <v>2</v>
       </c>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1674,9 +1687,15 @@
         <v>2</v>
       </c>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1734,9 +1753,15 @@
         <v>3</v>
       </c>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1794,9 +1819,15 @@
         <v>3</v>
       </c>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1854,9 +1885,15 @@
         <v>3</v>
       </c>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1914,9 +1951,15 @@
         <v>2</v>
       </c>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1974,11 +2017,17 @@
         <v>3</v>
       </c>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:Z8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AD8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E3B431-5054-4811-9BA0-766C56BC6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB2C35-EDE0-4333-A33C-F3CE23A227CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1494,7 +1494,7 @@
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.35">
@@ -1558,8 +1558,12 @@
       <c r="Z1" s="4">
         <v>45346</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
+      <c r="AA1" s="4">
+        <v>45347</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>45348</v>
+      </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
@@ -1624,8 +1628,12 @@
       <c r="Z2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AA2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
     </row>
@@ -1690,8 +1698,12 @@
       <c r="Z3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="AA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
@@ -1756,8 +1768,12 @@
       <c r="Z4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="AA4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
     </row>
@@ -1822,8 +1838,12 @@
       <c r="Z5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="AA5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
     </row>
@@ -1888,8 +1908,12 @@
       <c r="Z6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="AA6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
@@ -1954,8 +1978,12 @@
       <c r="Z7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="AA7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
     </row>
@@ -2020,8 +2048,12 @@
       <c r="Z8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="AA8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB2C35-EDE0-4333-A33C-F3CE23A227CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02231099-FDDB-4219-9543-D2B23AE4B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1479,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1495,9 +1495,10 @@
     <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.5" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1566,8 +1567,11 @@
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-    </row>
-    <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE1" s="4">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1636,8 +1640,11 @@
       </c>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
-    </row>
-    <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1706,8 +1713,11 @@
       </c>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-    </row>
-    <row r="4" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1776,8 +1786,11 @@
       </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
-    </row>
-    <row r="5" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1846,8 +1859,11 @@
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1916,8 +1932,11 @@
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1986,8 +2005,11 @@
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2056,10 +2078,13 @@
       </c>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
+      <c r="AE8" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AD8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AE8" xr:uid="{568274F5-10A2-4461-BDBB-94AA1EA59017}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02231099-FDDB-4219-9543-D2B23AE4B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0E793-4CE1-4E39-A353-1D229CACB5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Jan-2024" sheetId="2" r:id="rId2"/>
     <sheet name="Feb-2024" sheetId="3" r:id="rId3"/>
+    <sheet name="March-2024" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1481,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F991F-DF8D-4587-9427-4B02223BF254}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2091,4 +2092,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C1BFC3-885F-43B9-A43C-8CF1FB1C508D}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
+      <formula1>"Present, Absent,Reason"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0E793-4CE1-4E39-A353-1D229CACB5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F0E340-A51B-4942-834E-6FD07A34F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2096,85 +2096,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C1BFC3-885F-43B9-A43C-8CF1FB1C508D}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.8984375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4">
         <v>45352</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E1" s="4">
+        <v>45355</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 E2:K8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F0E340-A51B-4942-834E-6FD07A34F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340E635-10F0-4327-AC5E-7EFD021D9F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -2099,14 +2099,14 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.8984375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -2119,9 +2119,15 @@
       <c r="E1" s="4">
         <v>45355</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="4">
+        <v>45356</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45357</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45358</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -2136,9 +2142,15 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -2153,9 +2165,15 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -2170,9 +2188,15 @@
       <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2187,9 +2211,15 @@
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2204,9 +2234,15 @@
       <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2221,9 +2257,15 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2238,9 +2280,15 @@
       <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340E635-10F0-4327-AC5E-7EFD021D9F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589CFAF-DF59-43F7-95C6-AFDDEC4C041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec-2023" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2107,6 +2107,7 @@
     <col min="1" max="1" width="26.8984375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -2129,8 +2130,12 @@
         <v>45358</v>
       </c>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="4">
+        <v>45360</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45361</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -2152,8 +2157,12 @@
         <v>2</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -2175,8 +2184,12 @@
         <v>2</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2198,8 +2211,12 @@
         <v>3</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -2221,8 +2238,12 @@
         <v>3</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -2244,8 +2265,12 @@
         <v>3</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -2267,8 +2292,12 @@
         <v>2</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -2290,8 +2319,12 @@
         <v>3</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589CFAF-DF59-43F7-95C6-AFDDEC4C041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE08C1-A210-4407-A296-247CB8A3C433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -2096,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C1BFC3-885F-43B9-A43C-8CF1FB1C508D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2107,10 +2107,10 @@
     <col min="1" max="1" width="26.8984375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2136,8 +2136,16 @@
       <c r="K1" s="4">
         <v>45361</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L1" s="4">
+        <v>45362</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -2163,8 +2171,16 @@
       <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2190,8 +2206,16 @@
       <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2217,8 +2241,16 @@
       <c r="K4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2244,8 +2276,16 @@
       <c r="K5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2271,8 +2311,16 @@
       <c r="K6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2298,8 +2346,16 @@
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -2325,10 +2381,18 @@
       <c r="K8" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 E2:K8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 E2:Q8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE08C1-A210-4407-A296-247CB8A3C433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CFF80-C805-47FE-BD52-86683FF2E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2107,7 +2107,7 @@
     <col min="1" max="1" width="26.8984375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
@@ -2139,8 +2139,12 @@
       <c r="L1" s="4">
         <v>45362</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="4">
+        <v>45363</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45364</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -2174,8 +2178,12 @@
       <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -2209,8 +2217,12 @@
       <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -2244,8 +2256,12 @@
       <c r="L4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -2279,8 +2295,12 @@
       <c r="L5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -2314,8 +2334,12 @@
       <c r="L6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -2349,8 +2373,12 @@
       <c r="L7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -2384,8 +2412,12 @@
       <c r="L8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CFF80-C805-47FE-BD52-86683FF2E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4852F714-844D-4B93-ABAE-36566E6828C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -2096,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C1BFC3-885F-43B9-A43C-8CF1FB1C508D}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2107,10 +2107,11 @@
     <col min="1" max="1" width="26.8984375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2145,11 +2146,19 @@
       <c r="N1" s="4">
         <v>45364</v>
       </c>
-      <c r="O1" s="5"/>
+      <c r="O1" s="4">
+        <v>45365</v>
+      </c>
       <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q1" s="4">
+        <v>45367</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -2184,11 +2193,19 @@
       <c r="N2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2223,11 +2240,19 @@
       <c r="N3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="O3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2262,11 +2287,19 @@
       <c r="N4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2301,11 +2334,19 @@
       <c r="N5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2340,11 +2381,19 @@
       <c r="N6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2379,11 +2428,19 @@
       <c r="N7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -2418,13 +2475,21 @@
       <c r="N8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 E2:Q8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 E2:U8" xr:uid="{8CFB35A5-18FB-4C2F-B921-87CE613D375A}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Angular B10 B2.xlsx
+++ b/Angular B10 B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4852F714-844D-4B93-ABAE-36566E6828C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DBA10F-E34C-4F45-BA87-5E163D54C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2109,6 +2109,7 @@
     <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2154,8 +2155,12 @@
         <v>45367</v>
       </c>
       <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="S1" s="4">
+        <v>45369</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45370</v>
+      </c>
       <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2201,8 +2206,12 @@
         <v>2</v>
       </c>
       <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2248,8 +2257,12 @@
         <v>2</v>
       </c>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2295,8 +2308,12 @@
         <v>3</v>
       </c>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2342,8 +2359,12 @@
         <v>3</v>
       </c>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2389,8 +2410,12 @@
         <v>3</v>
       </c>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2436,8 +2461,12 @@
         <v>2</v>
       </c>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -2483,8 +2512,12 @@
         <v>3</v>
       </c>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="U8" s="7"/>
     </row>
   </sheetData>
